--- a/data/trans_bre/P32-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P32-Dificultad-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>-0.6045170253382991</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.6194041151553153</v>
+        <v>-0.6194041151553155</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.281662948654483</v>
+        <v>-3.186285757319382</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-8.718005505000228</v>
+        <v>-8.685689232628759</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-6.419534830984307</v>
+        <v>-6.442713504312003</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-13.55740140802551</v>
+        <v>-13.18986500242177</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.8355163676898254</v>
+        <v>-0.799511793943589</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.888113843399627</v>
+        <v>-0.8895942847346199</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.8412579631564472</v>
+        <v>-0.8307459583553883</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.8699225805609072</v>
+        <v>-0.864696132516617</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.107191443306369</v>
+        <v>2.907803000807391</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-2.227319472695345</v>
+        <v>-1.7233817053875</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.9328003589688063</v>
+        <v>-1.034293179518383</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-1.190087741564246</v>
+        <v>-1.332971272997409</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.576741247564769</v>
+        <v>2.020948242398027</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.2617900069984788</v>
+        <v>-0.2216613185520862</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>-0.1242689414648153</v>
+        <v>-0.1496105310083396</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.002786348622861371</v>
+        <v>-0.05298469529573482</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.408526371007709</v>
+        <v>-2.189426673104377</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-6.193776394583055</v>
+        <v>-6.064531613095761</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-4.063084246659647</v>
+        <v>-3.786161027827347</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-6.138962922500419</v>
+        <v>-6.21723774013361</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7666566132226283</v>
+        <v>-0.7327221605613274</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.9083206856853854</v>
+        <v>-0.8841908249434315</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.7532771388950223</v>
+        <v>-0.7299413590567002</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.9078409315046986</v>
+        <v>-0.9330709476891693</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.414620531539284</v>
+        <v>2.713837637107376</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-1.201668214458277</v>
+        <v>-1.283167753841383</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.263975974032939</v>
+        <v>1.082282942679752</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-1.465377442151735</v>
+        <v>-1.213626867594691</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.425242107499879</v>
+        <v>1.688519481793304</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.2355863570984001</v>
+        <v>-0.2045811189769025</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4383146226523197</v>
+        <v>0.3844020538342786</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.2947777731093078</v>
+        <v>-0.302261805786543</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-1.171725921004863</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-0.2185293433488771</v>
+        <v>-0.2185293433488777</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.8889421618093333</v>
@@ -849,7 +849,7 @@
         <v>-0.2415646603157914</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.05078414862483441</v>
+        <v>-0.05078414862483457</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.241776518744273</v>
+        <v>-4.306908439261467</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.827641692259706</v>
+        <v>-5.860958863033487</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.05239781387843</v>
+        <v>-4.23822806319781</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.000197323874552</v>
+        <v>-3.147537875307207</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.8564943292145309</v>
+        <v>-0.8648102354486257</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.6630557460619133</v>
+        <v>-0.6800106776671858</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.5957301005545751</v>
+        <v>-0.6526536533104531</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-1.109056606702725</v>
+        <v>-1.131264674795779</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.6466588432124387</v>
+        <v>-0.5887379310938592</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.129615926806476</v>
+        <v>2.025731100395216</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.050031412504024</v>
+        <v>4.094348349165124</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.2224038913351899</v>
+        <v>-0.1910491548414819</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.06957918437656095</v>
+        <v>-0.06969356550096195</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6340640779448801</v>
+        <v>0.5993725449613063</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.263343034226356</v>
+        <v>1.302959304444977</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-0.9679236534367683</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-3.585948367051639</v>
+        <v>-3.585948367051638</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.5958423025155621</v>
@@ -949,7 +949,7 @@
         <v>-0.1642928600059183</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.4459242420571792</v>
+        <v>-0.4459242420571791</v>
       </c>
     </row>
     <row r="14">
@@ -960,26 +960,26 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-3.699989100344648</v>
+        <v>-3.746727909934506</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-11.20804728614136</v>
+        <v>-11.16183592897474</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-5.151120712751001</v>
+        <v>-4.782809451889835</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-7.51473498638741</v>
+        <v>-7.188641214793908</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
-        <v>-0.9481759455682881</v>
+        <v>-0.93110874288894</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.6685708066265008</v>
+        <v>-0.6909582505471963</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.7600038895017365</v>
+        <v>-0.7443879259883577</v>
       </c>
     </row>
     <row r="15">
@@ -990,26 +990,26 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.321584596571546</v>
+        <v>1.054915998405295</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-1.998894422206106</v>
+        <v>-2.086149036180769</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.276826677738182</v>
+        <v>3.781576904130181</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3402906322039915</v>
+        <v>0.2420698887463673</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>-0.1708388618778503</v>
+        <v>-0.1263227851889367</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.816681752465836</v>
+        <v>0.9226474050075818</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.07804567618758393</v>
+        <v>0.06589944036198163</v>
       </c>
     </row>
     <row r="16">
@@ -1045,7 +1045,7 @@
         <v>-0.3815811352299867</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.4619210481648905</v>
+        <v>-0.4619210481648906</v>
       </c>
     </row>
     <row r="17">
@@ -1056,28 +1056,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.352989626288331</v>
+        <v>-2.325217781950287</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.121934605301527</v>
+        <v>-6.155029490568717</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.491187419111108</v>
+        <v>-3.45567599806111</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.728782441202042</v>
+        <v>-4.867479924506457</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.7472775899088966</v>
+        <v>-0.7371107256887995</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.8132731419134225</v>
+        <v>-0.805633946356521</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.5814229624069259</v>
+        <v>-0.5855365763913946</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.6551324947583521</v>
+        <v>-0.6601599030651666</v>
       </c>
     </row>
     <row r="18">
@@ -1088,28 +1088,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.1019707618011325</v>
+        <v>-0.04737076701994309</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-3.017816693283141</v>
+        <v>-2.990485747395978</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.5275672647933476</v>
+        <v>-0.424476275186034</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-0.975490303688352</v>
+        <v>-1.10932126982594</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.003646128953203573</v>
+        <v>0.01623462090414814</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.4941725882652601</v>
+        <v>-0.4671604906644661</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.1046581825907635</v>
+        <v>-0.08467296513176464</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.1488061620666436</v>
+        <v>-0.179285070886778</v>
       </c>
     </row>
     <row r="19">
